--- a/Output/July/productivity_agent_valid/productivity_agent_2022-07-18_valid.xlsx
+++ b/Output/July/productivity_agent_valid/productivity_agent_2022-07-18_valid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -613,6 +613,9 @@
     <t>sp99124</t>
   </si>
   <si>
+    <t>sp99125</t>
+  </si>
+  <si>
     <t>陳昱伶</t>
   </si>
   <si>
@@ -893,6 +896,9 @@
   </si>
   <si>
     <t>傅琇蓁</t>
+  </si>
+  <si>
+    <t>陳妍琳</t>
   </si>
   <si>
     <t>約聘</t>
@@ -1289,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DA95"/>
+  <dimension ref="A1:DA96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1617,16 +1623,16 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F2">
         <v>6.066666666666666</v>
@@ -1647,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1016</v>
+        <v>776</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1761,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>1069.473684210526</v>
+        <v>816.8421052631578</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -1875,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1.069473684210526</v>
+        <v>0.8168421052631578</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1926,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.1674725274725275</v>
+        <v>0.1279120879120879</v>
       </c>
     </row>
     <row r="3" spans="1:105">
@@ -1934,16 +1940,16 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F3">
         <v>10.75</v>
@@ -1982,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="S3">
-        <v>412</v>
+        <v>483</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2096,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>103.768115942029</v>
+        <v>119.4202898550725</v>
       </c>
       <c r="BE3">
-        <v>56.43835616438356</v>
+        <v>66.16438356164383</v>
       </c>
       <c r="BF3">
         <v>0</v>
@@ -2210,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.9102466310704298</v>
+        <v>1.047546402237478</v>
       </c>
       <c r="CQ3">
-        <v>0.3946738193313536</v>
+        <v>0.4626879969345722</v>
       </c>
       <c r="CR3">
         <v>0</v>
@@ -2243,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.5601367217034291</v>
+        <v>0.6503867409620163</v>
       </c>
     </row>
     <row r="4" spans="1:105">
@@ -2251,16 +2257,16 @@
         <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F4">
         <v>6.300000000000001</v>
@@ -2281,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1734</v>
+        <v>1722</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -2395,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>1405.945945945946</v>
+        <v>1396.216216216216</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -2509,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1.405945945945946</v>
+        <v>1.396216216216216</v>
       </c>
       <c r="CK4">
         <v>0</v>
@@ -2560,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.3108758581485854</v>
+        <v>0.3089710962438235</v>
       </c>
     </row>
     <row r="5" spans="1:105">
@@ -2568,16 +2574,16 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F5">
         <v>10.26666666666667</v>
@@ -2616,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="S5">
-        <v>525</v>
+        <v>635</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2730,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>143.305785123967</v>
+        <v>176.5289256198347</v>
       </c>
       <c r="BE5">
-        <v>63.63636363636363</v>
+        <v>76.96969696969697</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -2844,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="CP5">
-        <v>1.257068290561114</v>
+        <v>1.54849934754241</v>
       </c>
       <c r="CQ5">
-        <v>0.4450095359186268</v>
+        <v>0.5382496291587201</v>
       </c>
       <c r="CR5">
         <v>0</v>
@@ -2877,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.6045210770091152</v>
+        <v>0.7366915381269448</v>
       </c>
     </row>
     <row r="6" spans="1:105">
@@ -2885,16 +2891,16 @@
         <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F6">
         <v>6.116666666666666</v>
@@ -2933,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S6">
-        <v>637</v>
+        <v>725</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3047,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>80</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="BE6">
-        <v>106.7597765363129</v>
+        <v>121.5083798882682</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -3161,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.7017543859649122</v>
+        <v>1.52046783625731</v>
       </c>
       <c r="CQ6">
-        <v>0.7465718638902997</v>
+        <v>0.8497089502676095</v>
       </c>
       <c r="CR6">
         <v>0</v>
@@ -3194,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.7454727976741458</v>
+        <v>0.8661580782619074</v>
       </c>
     </row>
     <row r="7" spans="1:105">
@@ -3202,16 +3208,16 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F7">
         <v>9.1</v>
@@ -3250,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>502</v>
+        <v>620</v>
       </c>
       <c r="S7">
-        <v>384</v>
+        <v>474</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -3364,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="BD7">
-        <v>127.0886075949367</v>
+        <v>156.9620253164557</v>
       </c>
       <c r="BE7">
-        <v>74.5631067961165</v>
+        <v>92.03883495145631</v>
       </c>
       <c r="BF7">
         <v>0</v>
@@ -3478,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="CP7">
-        <v>1.114812347324006</v>
+        <v>1.37685987119698</v>
       </c>
       <c r="CQ7">
-        <v>0.52142032724557</v>
+        <v>0.6436282164437505</v>
       </c>
       <c r="CR7">
         <v>0</v>
@@ -3511,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="DA7">
-        <v>0.778991588708188</v>
+        <v>0.9618990995509216</v>
       </c>
     </row>
     <row r="8" spans="1:105">
@@ -3519,16 +3525,16 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F8">
         <v>1.416666666666667</v>
@@ -3567,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -3681,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="BD8">
-        <v>123.5294117647059</v>
+        <v>158.1176470588235</v>
       </c>
       <c r="BE8">
         <v>0</v>
@@ -3795,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="CP8">
-        <v>1.08359133126935</v>
+        <v>1.386996904024768</v>
       </c>
       <c r="CQ8">
         <v>0</v>
@@ -3828,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="DA8">
-        <v>1.08359133126935</v>
+        <v>1.386996904024768</v>
       </c>
     </row>
     <row r="9" spans="1:105">
@@ -3836,16 +3842,16 @@
         <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F9">
         <v>9.316666666666666</v>
@@ -3887,7 +3893,7 @@
         <v>341</v>
       </c>
       <c r="S9">
-        <v>624</v>
+        <v>759</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -4001,7 +4007,7 @@
         <v>162.3809523809524</v>
       </c>
       <c r="BE9">
-        <v>86.46651270207852</v>
+        <v>105.1732101616628</v>
       </c>
       <c r="BF9">
         <v>0</v>
@@ -4115,7 +4121,7 @@
         <v>1.424394319131161</v>
       </c>
       <c r="CQ9">
-        <v>0.604660927986563</v>
+        <v>0.7354769941375022</v>
       </c>
       <c r="CR9">
         <v>0</v>
@@ -4145,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="DA9">
-        <v>0.789430887350104</v>
+        <v>0.8907606845654112</v>
       </c>
     </row>
     <row r="10" spans="1:105">
@@ -4153,16 +4159,16 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F10">
         <v>8.283333333333333</v>
@@ -4201,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>428</v>
+        <v>596</v>
       </c>
       <c r="S10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="T10">
-        <v>801</v>
+        <v>926</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -4315,13 +4321,13 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>78.77300613496932</v>
+        <v>109.6932515337423</v>
       </c>
       <c r="BE10">
-        <v>62.95081967213115</v>
+        <v>69.8360655737705</v>
       </c>
       <c r="BF10">
-        <v>436.9090909090909</v>
+        <v>505.0909090909091</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -4429,13 +4435,13 @@
         <v>0</v>
       </c>
       <c r="CP10">
-        <v>0.6909912818856958</v>
+        <v>0.9622215046819502</v>
       </c>
       <c r="CQ10">
-        <v>0.4402155221827354</v>
+        <v>0.488364094921472</v>
       </c>
       <c r="CR10">
-        <v>0.6068181818181818</v>
+        <v>0.7015151515151515</v>
       </c>
       <c r="CS10">
         <v>0</v>
@@ -4462,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="DA10">
-        <v>0.6415821021084179</v>
+        <v>0.8463603359822782</v>
       </c>
     </row>
     <row r="11" spans="1:105">
@@ -4470,16 +4476,16 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F11">
         <v>7.25</v>
@@ -4518,10 +4524,10 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="S11">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -4632,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="BD11">
-        <v>103.448275862069</v>
+        <v>110.6896551724138</v>
       </c>
       <c r="BE11">
-        <v>86.00985221674877</v>
+        <v>97.83251231527093</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -4746,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="CP11">
-        <v>0.9074410163339384</v>
+        <v>0.9709618874773139</v>
       </c>
       <c r="CQ11">
-        <v>0.6014674980192222</v>
+        <v>0.6841434427641324</v>
       </c>
       <c r="CR11">
         <v>0</v>
@@ -4779,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="DA11">
-        <v>0.7646533744537375</v>
+        <v>0.8371132799444958</v>
       </c>
     </row>
     <row r="12" spans="1:105">
@@ -4787,16 +4793,16 @@
         <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F12">
         <v>9.15</v>
@@ -4835,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>209</v>
+        <v>315</v>
       </c>
       <c r="S12">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -4949,10 +4955,10 @@
         <v>0</v>
       </c>
       <c r="BD12">
-        <v>81.42857142857142</v>
+        <v>122.7272727272727</v>
       </c>
       <c r="BE12">
-        <v>79.89873417721519</v>
+        <v>92.81012658227847</v>
       </c>
       <c r="BF12">
         <v>0</v>
@@ -5063,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="CP12">
-        <v>0.7142857142857142</v>
+        <v>1.076555023923445</v>
       </c>
       <c r="CQ12">
-        <v>0.5587324068336726</v>
+        <v>0.6490218642117376</v>
       </c>
       <c r="CR12">
         <v>0</v>
@@ -5096,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="DA12">
-        <v>0.6023666679404384</v>
+        <v>0.7689491986299579</v>
       </c>
     </row>
     <row r="13" spans="1:105">
@@ -5104,16 +5110,16 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F13">
         <v>9.233333333333333</v>
@@ -5152,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>299</v>
+        <v>396</v>
       </c>
       <c r="S13">
-        <v>528</v>
+        <v>667</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -5266,10 +5272,10 @@
         <v>0</v>
       </c>
       <c r="BD13">
-        <v>115</v>
+        <v>152.3076923076923</v>
       </c>
       <c r="BE13">
-        <v>79.59798994974875</v>
+        <v>100.5527638190955</v>
       </c>
       <c r="BF13">
         <v>0</v>
@@ -5380,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="CP13">
-        <v>1.008771929824561</v>
+        <v>1.336032388663968</v>
       </c>
       <c r="CQ13">
-        <v>0.5566293003478934</v>
+        <v>0.7031661805531153</v>
       </c>
       <c r="CR13">
         <v>0</v>
@@ -5413,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="DA13">
-        <v>0.6839474415001681</v>
+        <v>0.8813739936673626</v>
       </c>
     </row>
     <row r="14" spans="1:105">
@@ -5421,16 +5427,16 @@
         <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F14">
         <v>9.199999999999999</v>
@@ -5469,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="S14">
-        <v>648</v>
+        <v>776</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -5583,10 +5589,10 @@
         <v>0</v>
       </c>
       <c r="BD14">
-        <v>133.125</v>
+        <v>150.375</v>
       </c>
       <c r="BE14">
-        <v>99.18367346938776</v>
+        <v>118.7755102040816</v>
       </c>
       <c r="BF14">
         <v>0</v>
@@ -5697,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="CP14">
-        <v>1.167763157894737</v>
+        <v>1.319078947368421</v>
       </c>
       <c r="CQ14">
-        <v>0.6935921221635507</v>
+        <v>0.8305979734551163</v>
       </c>
       <c r="CR14">
         <v>0</v>
@@ -5730,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="DA14">
-        <v>0.8310330020856338</v>
+        <v>0.9721866615459294</v>
       </c>
     </row>
     <row r="15" spans="1:105">
@@ -5738,16 +5744,16 @@
         <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F15">
         <v>7.249999999999999</v>
@@ -5789,10 +5795,10 @@
         <v>49</v>
       </c>
       <c r="S15">
-        <v>579</v>
+        <v>672</v>
       </c>
       <c r="T15">
-        <v>463</v>
+        <v>553</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -5903,10 +5909,10 @@
         <v>210</v>
       </c>
       <c r="BE15">
-        <v>113.1596091205212</v>
+        <v>131.3355048859935</v>
       </c>
       <c r="BF15">
-        <v>243.6842105263158</v>
+        <v>291.0526315789474</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -6017,10 +6023,10 @@
         <v>1.842105263157895</v>
       </c>
       <c r="CQ15">
-        <v>0.7913259379057426</v>
+        <v>0.9184301040978565</v>
       </c>
       <c r="CR15">
-        <v>0.3384502923976608</v>
+        <v>0.4042397660818714</v>
       </c>
       <c r="CS15">
         <v>0</v>
@@ -6047,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="DA15">
-        <v>0.7064594711600158</v>
+        <v>0.8134042505185881</v>
       </c>
     </row>
     <row r="16" spans="1:105">
@@ -6055,16 +6061,16 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E16" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F16">
         <v>3.25</v>
@@ -6097,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -6372,16 +6378,16 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F17">
         <v>6.616666666666667</v>
@@ -6402,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -6411,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4269</v>
+        <v>3450</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -6516,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>153.8461538461538</v>
+        <v>0</v>
       </c>
       <c r="AY17">
         <v>0</v>
@@ -6525,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>966.5660377358491</v>
+        <v>781.1320754716983</v>
       </c>
       <c r="BB17">
         <v>0</v>
@@ -6630,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="CJ17">
-        <v>0.1538461538461538</v>
+        <v>0</v>
       </c>
       <c r="CK17">
         <v>0</v>
@@ -6639,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="CM17">
-        <v>1.208207547169811</v>
+        <v>0.9764150943396228</v>
       </c>
       <c r="CN17">
         <v>0</v>
@@ -6681,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="DA17">
-        <v>0.8782225159772675</v>
+        <v>0.7083862439369653</v>
       </c>
     </row>
     <row r="18" spans="1:105">
@@ -6689,16 +6695,16 @@
         <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E18" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F18">
         <v>6.199999999999999</v>
@@ -6719,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2224</v>
+        <v>2093</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -6833,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="AX18">
-        <v>558.3263598326359</v>
+        <v>525.439330543933</v>
       </c>
       <c r="AY18">
         <v>0</v>
@@ -6947,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="CJ18">
-        <v>0.5583263598326359</v>
+        <v>0.525439330543933</v>
       </c>
       <c r="CK18">
         <v>0</v>
@@ -6998,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="DA18">
-        <v>0.3960330578512397</v>
+        <v>0.3749040255931751</v>
       </c>
     </row>
     <row r="19" spans="1:105">
@@ -7006,16 +7012,16 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F19">
         <v>9.149999999999999</v>
@@ -7057,7 +7063,7 @@
         <v>93</v>
       </c>
       <c r="S19">
-        <v>377</v>
+        <v>483</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -7171,7 +7177,7 @@
         <v>129.7674418604651</v>
       </c>
       <c r="BE19">
-        <v>44.70355731225296</v>
+        <v>57.27272727272727</v>
       </c>
       <c r="BF19">
         <v>0</v>
@@ -7285,7 +7291,7 @@
         <v>1.138310893512852</v>
       </c>
       <c r="CQ19">
-        <v>0.3126122888968739</v>
+        <v>0.4005085823267642</v>
       </c>
       <c r="CR19">
         <v>0</v>
@@ -7315,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="DA19">
-        <v>0.3772844929014041</v>
+        <v>0.458296377191977</v>
       </c>
     </row>
     <row r="20" spans="1:105">
@@ -7323,16 +7329,16 @@
         <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F20">
         <v>8.35</v>
@@ -7365,13 +7371,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -7485,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="BD20">
-        <v>116.6129032258064</v>
+        <v>152.9032258064516</v>
       </c>
       <c r="BE20">
         <v>0</v>
@@ -7599,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="CP20">
-        <v>1.022920203735144</v>
+        <v>1.34125636672326</v>
       </c>
       <c r="CQ20">
         <v>0</v>
@@ -7632,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="DA20">
-        <v>0.647595630834894</v>
+        <v>0.72638541967826</v>
       </c>
     </row>
     <row r="21" spans="1:105">
@@ -7640,16 +7646,16 @@
         <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F21">
         <v>9.283333333333333</v>
@@ -7688,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="S21">
-        <v>510</v>
+        <v>604</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -7802,10 +7808,10 @@
         <v>0</v>
       </c>
       <c r="BD21">
-        <v>158.8841201716738</v>
+        <v>173.5622317596566</v>
       </c>
       <c r="BE21">
-        <v>94.44444444444444</v>
+        <v>111.8518518518518</v>
       </c>
       <c r="BF21">
         <v>0</v>
@@ -7916,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="CP21">
-        <v>1.393720352383104</v>
+        <v>1.522475717189971</v>
       </c>
       <c r="CQ21">
-        <v>0.6604506604506605</v>
+        <v>0.7821807821807821</v>
       </c>
       <c r="CR21">
         <v>0</v>
@@ -7949,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="DA21">
-        <v>0.9671864561782355</v>
+        <v>1.091855324114608</v>
       </c>
     </row>
     <row r="22" spans="1:105">
@@ -7957,16 +7963,16 @@
         <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F22">
         <v>6.033333333333333</v>
@@ -7999,13 +8005,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -8119,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="BD22">
-        <v>76.88888888888889</v>
+        <v>91.11111111111111</v>
       </c>
       <c r="BE22">
         <v>0</v>
@@ -8233,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="CP22">
-        <v>0.6744639376218323</v>
+        <v>0.7992202729044835</v>
       </c>
       <c r="CQ22">
         <v>0</v>
@@ -8266,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="DA22">
-        <v>0.5563072101970831</v>
+        <v>0.6028323628577403</v>
       </c>
     </row>
     <row r="23" spans="1:105">
@@ -8274,16 +8280,16 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D23" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E23" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F23">
         <v>8.85</v>
@@ -8322,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="S23">
-        <v>357</v>
+        <v>427</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -8436,10 +8442,10 @@
         <v>0</v>
       </c>
       <c r="BD23">
-        <v>132.8727272727273</v>
+        <v>140.0727272727273</v>
       </c>
       <c r="BE23">
-        <v>83.671875</v>
+        <v>100.078125</v>
       </c>
       <c r="BF23">
         <v>0</v>
@@ -8550,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="CP23">
-        <v>1.16555023923445</v>
+        <v>1.228708133971292</v>
       </c>
       <c r="CQ23">
-        <v>0.585118006993007</v>
+        <v>0.699847027972028</v>
       </c>
       <c r="CR23">
         <v>0</v>
@@ -8583,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="DA23">
-        <v>0.8857185039165414</v>
+        <v>0.9737393145064868</v>
       </c>
     </row>
     <row r="24" spans="1:105">
@@ -8591,16 +8597,16 @@
         <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D24" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F24">
         <v>9.166666666666668</v>
@@ -8639,10 +8645,10 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>392</v>
+        <v>583</v>
       </c>
       <c r="S24">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -8753,10 +8759,10 @@
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>94.83870967741935</v>
+        <v>141.0483870967742</v>
       </c>
       <c r="BE24">
-        <v>62.98013245033113</v>
+        <v>76.88741721854305</v>
       </c>
       <c r="BF24">
         <v>0</v>
@@ -8867,10 +8873,10 @@
         <v>0</v>
       </c>
       <c r="CP24">
-        <v>0.831918505942275</v>
+        <v>1.237266553480475</v>
       </c>
       <c r="CQ24">
-        <v>0.4404205066456722</v>
+        <v>0.5376742462835178</v>
       </c>
       <c r="CR24">
         <v>0</v>
@@ -8900,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="DA24">
-        <v>0.6169505136012312</v>
+        <v>0.8531267775286911</v>
       </c>
     </row>
     <row r="25" spans="1:105">
@@ -8908,16 +8914,16 @@
         <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E25" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F25">
         <v>7.033333333333333</v>
@@ -8956,13 +8962,13 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="S25">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="T25">
-        <v>519</v>
+        <v>630</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -9070,13 +9076,13 @@
         <v>0</v>
       </c>
       <c r="BD25">
-        <v>77.9381443298969</v>
+        <v>114.4329896907216</v>
       </c>
       <c r="BE25">
-        <v>104.0506329113924</v>
+        <v>116.5822784810127</v>
       </c>
       <c r="BF25">
-        <v>444.8571428571428</v>
+        <v>540</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -9184,13 +9190,13 @@
         <v>0</v>
       </c>
       <c r="CP25">
-        <v>0.6836679327183939</v>
+        <v>1.003798155181769</v>
       </c>
       <c r="CQ25">
-        <v>0.7276268035761707</v>
+        <v>0.8152606886784103</v>
       </c>
       <c r="CR25">
-        <v>0.6178571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="CS25">
         <v>0</v>
@@ -9217,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="DA25">
-        <v>0.6892099855744156</v>
+        <v>0.8911090780010711</v>
       </c>
     </row>
     <row r="26" spans="1:105">
@@ -9225,16 +9231,16 @@
         <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D26" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F26">
         <v>3.6</v>
@@ -9542,16 +9548,16 @@
         <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D27" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F27">
         <v>6.449999999999999</v>
@@ -9593,7 +9599,7 @@
         <v>264</v>
       </c>
       <c r="S27">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -9707,7 +9713,7 @@
         <v>130.9090909090909</v>
       </c>
       <c r="BE27">
-        <v>62.93233082706767</v>
+        <v>82.78195488721803</v>
       </c>
       <c r="BF27">
         <v>0</v>
@@ -9821,7 +9827,7 @@
         <v>1.148325358851675</v>
       </c>
       <c r="CQ27">
-        <v>0.4400862295599138</v>
+        <v>0.5788947894211052</v>
       </c>
       <c r="CR27">
         <v>0</v>
@@ -9851,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="DA27">
-        <v>0.6615253371679322</v>
+        <v>0.7569338046694229</v>
       </c>
     </row>
     <row r="28" spans="1:105">
@@ -9859,16 +9865,16 @@
         <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F28">
         <v>9.166666666666666</v>
@@ -9907,10 +9913,10 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>438</v>
+        <v>620</v>
       </c>
       <c r="S28">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -10021,10 +10027,10 @@
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>110.8860759493671</v>
+        <v>156.9620253164557</v>
       </c>
       <c r="BE28">
-        <v>65.17571884984027</v>
+        <v>72.84345047923324</v>
       </c>
       <c r="BF28">
         <v>0</v>
@@ -10135,10 +10141,10 @@
         <v>0</v>
       </c>
       <c r="CP28">
-        <v>0.9726848767488341</v>
+        <v>1.37685987119698</v>
       </c>
       <c r="CQ28">
-        <v>0.4557742576911907</v>
+        <v>0.5093947585960367</v>
       </c>
       <c r="CR28">
         <v>0</v>
@@ -10168,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="DA28">
-        <v>0.6785157426305752</v>
+        <v>0.8831933616622614</v>
       </c>
     </row>
     <row r="29" spans="1:105">
@@ -10176,16 +10182,16 @@
         <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F29">
         <v>9.25</v>
@@ -10224,10 +10230,10 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>539</v>
+        <v>714</v>
       </c>
       <c r="S29">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -10338,10 +10344,10 @@
         <v>0</v>
       </c>
       <c r="BD29">
-        <v>89.09090909090909</v>
+        <v>118.0165289256198</v>
       </c>
       <c r="BE29">
-        <v>72.1875</v>
+        <v>83.75</v>
       </c>
       <c r="BF29">
         <v>0</v>
@@ -10452,10 +10458,10 @@
         <v>0</v>
       </c>
       <c r="CP29">
-        <v>0.7814992025518341</v>
+        <v>1.035232709873858</v>
       </c>
       <c r="CQ29">
-        <v>0.5048076923076923</v>
+        <v>0.5856643356643356</v>
       </c>
       <c r="CR29">
         <v>0</v>
@@ -10485,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="DA29">
-        <v>0.685778896305212</v>
+        <v>0.8797063533905639</v>
       </c>
     </row>
     <row r="30" spans="1:105">
@@ -10493,16 +10499,16 @@
         <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C30" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D30" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E30" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F30">
         <v>7.033333333333333</v>
@@ -10544,10 +10550,10 @@
         <v>143</v>
       </c>
       <c r="S30">
-        <v>325</v>
+        <v>409</v>
       </c>
       <c r="T30">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -10658,10 +10664,10 @@
         <v>145.4237288135593</v>
       </c>
       <c r="BE30">
-        <v>61.32075471698113</v>
+        <v>77.16981132075472</v>
       </c>
       <c r="BF30">
-        <v>122.6666666666667</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="BG30">
         <v>0</v>
@@ -10772,10 +10778,10 @@
         <v>1.275646743978591</v>
       </c>
       <c r="CQ30">
-        <v>0.4288164665523156</v>
+        <v>0.5396490302150679</v>
       </c>
       <c r="CR30">
-        <v>0.1703703703703704</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="CS30">
         <v>0</v>
@@ -10802,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="DA30">
-        <v>0.5196527510072035</v>
+        <v>0.6067256307341117</v>
       </c>
     </row>
     <row r="31" spans="1:105">
@@ -10810,16 +10816,16 @@
         <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D31" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F31">
         <v>8.916666666666666</v>
@@ -10858,10 +10864,10 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="S31">
-        <v>544</v>
+        <v>663</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -10972,10 +10978,10 @@
         <v>0</v>
       </c>
       <c r="BD31">
-        <v>145.0909090909091</v>
+        <v>159.2727272727273</v>
       </c>
       <c r="BE31">
-        <v>75.7308584686775</v>
+        <v>92.29698375870069</v>
       </c>
       <c r="BF31">
         <v>0</v>
@@ -11086,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="CP31">
-        <v>1.272727272727273</v>
+        <v>1.397129186602871</v>
       </c>
       <c r="CQ31">
-        <v>0.5295864228578846</v>
+        <v>0.6454334528580468</v>
       </c>
       <c r="CR31">
         <v>0</v>
@@ -11119,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="DA31">
-        <v>0.6427135481341089</v>
+        <v>0.7488297634485535</v>
       </c>
     </row>
     <row r="32" spans="1:105">
@@ -11127,16 +11133,16 @@
         <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F32">
         <v>9.233333333333333</v>
@@ -11175,10 +11181,10 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="S32">
-        <v>589</v>
+        <v>696</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -11289,10 +11295,10 @@
         <v>0</v>
       </c>
       <c r="BD32">
-        <v>113.5849056603773</v>
+        <v>120.7547169811321</v>
       </c>
       <c r="BE32">
-        <v>89.46835443037975</v>
+        <v>105.7215189873418</v>
       </c>
       <c r="BF32">
         <v>0</v>
@@ -11403,10 +11409,10 @@
         <v>0</v>
       </c>
       <c r="CP32">
-        <v>0.9963588215822574</v>
+        <v>1.059251903343264</v>
       </c>
       <c r="CQ32">
-        <v>0.6256528281844738</v>
+        <v>0.7393113215898026</v>
       </c>
       <c r="CR32">
         <v>0</v>
@@ -11436,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="DA32">
-        <v>0.7320467865784226</v>
+        <v>0.8311354235731968</v>
       </c>
     </row>
     <row r="33" spans="1:105">
@@ -11444,16 +11450,16 @@
         <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F33">
         <v>7.466666666666667</v>
@@ -11492,10 +11498,10 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>770</v>
+        <v>894</v>
       </c>
       <c r="S33">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -11606,10 +11612,10 @@
         <v>0</v>
       </c>
       <c r="BD33">
-        <v>156.0810810810811</v>
+        <v>181.2162162162162</v>
       </c>
       <c r="BE33">
-        <v>108.5526315789474</v>
+        <v>123.5526315789474</v>
       </c>
       <c r="BF33">
         <v>0</v>
@@ -11720,10 +11726,10 @@
         <v>0</v>
       </c>
       <c r="CP33">
-        <v>1.369132290184922</v>
+        <v>1.589615931721195</v>
       </c>
       <c r="CQ33">
-        <v>0.7591093117408907</v>
+        <v>0.8640044166359956</v>
       </c>
       <c r="CR33">
         <v>0</v>
@@ -11753,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="DA33">
-        <v>1.16216020821284</v>
+        <v>1.343426310531573</v>
       </c>
     </row>
     <row r="34" spans="1:105">
@@ -11761,16 +11767,16 @@
         <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F34">
         <v>8.950000000000001</v>
@@ -11809,10 +11815,10 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>851</v>
+        <v>960</v>
       </c>
       <c r="S34">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -11923,10 +11929,10 @@
         <v>0</v>
       </c>
       <c r="BD34">
-        <v>190.5223880597015</v>
+        <v>214.9253731343283</v>
       </c>
       <c r="BE34">
-        <v>88.10408921933086</v>
+        <v>104.6096654275093</v>
       </c>
       <c r="BF34">
         <v>0</v>
@@ -12037,10 +12043,10 @@
         <v>0</v>
       </c>
       <c r="CP34">
-        <v>1.671249018067557</v>
+        <v>1.885310290652003</v>
       </c>
       <c r="CQ34">
-        <v>0.6161125120232928</v>
+        <v>0.7315361218706944</v>
       </c>
       <c r="CR34">
         <v>0</v>
@@ -12070,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="DA34">
-        <v>1.142698328820058</v>
+        <v>1.307348928636785</v>
       </c>
     </row>
     <row r="35" spans="1:105">
@@ -12078,16 +12084,16 @@
         <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F35">
         <v>7.666666666666666</v>
@@ -12129,10 +12135,10 @@
         <v>31</v>
       </c>
       <c r="S35">
-        <v>660</v>
+        <v>801</v>
       </c>
       <c r="T35">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -12243,10 +12249,10 @@
         <v>155</v>
       </c>
       <c r="BE35">
-        <v>92.30769230769232</v>
+        <v>112.027972027972</v>
       </c>
       <c r="BF35">
-        <v>328.421052631579</v>
+        <v>407.3684210526316</v>
       </c>
       <c r="BG35">
         <v>0</v>
@@ -12357,10 +12363,10 @@
         <v>1.359649122807018</v>
       </c>
       <c r="CQ35">
-        <v>0.6455083378160302</v>
+        <v>0.7834123918040002</v>
       </c>
       <c r="CR35">
-        <v>0.456140350877193</v>
+        <v>0.5657894736842106</v>
       </c>
       <c r="CS35">
         <v>0</v>
@@ -12387,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="DA35">
-        <v>0.6563163762248433</v>
+        <v>0.7894558816469573</v>
       </c>
     </row>
     <row r="36" spans="1:105">
@@ -12395,16 +12401,16 @@
         <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F36">
         <v>9.166666666666668</v>
@@ -12443,10 +12449,10 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>678</v>
+        <v>728</v>
       </c>
       <c r="S36">
-        <v>532</v>
+        <v>608</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -12557,10 +12563,10 @@
         <v>0</v>
       </c>
       <c r="BD36">
-        <v>180.8</v>
+        <v>194.1333333333333</v>
       </c>
       <c r="BE36">
-        <v>98.21538461538462</v>
+        <v>112.2461538461539</v>
       </c>
       <c r="BF36">
         <v>0</v>
@@ -12671,10 +12677,10 @@
         <v>0</v>
       </c>
       <c r="CP36">
-        <v>1.585964912280702</v>
+        <v>1.702923976608187</v>
       </c>
       <c r="CQ36">
-        <v>0.6868208714362561</v>
+        <v>0.7849381387842927</v>
       </c>
       <c r="CR36">
         <v>0</v>
@@ -12704,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="DA36">
-        <v>1.054652524508984</v>
+        <v>1.16047779971225</v>
       </c>
     </row>
     <row r="37" spans="1:105">
@@ -12712,16 +12718,16 @@
         <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C37" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D37" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E37" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F37">
         <v>9.300000000000001</v>
@@ -12760,10 +12766,10 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>306</v>
+        <v>404</v>
       </c>
       <c r="S37">
-        <v>624</v>
+        <v>743</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -12874,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BD37">
-        <v>104.9142857142857</v>
+        <v>138.5142857142857</v>
       </c>
       <c r="BE37">
-        <v>97.75456919060053</v>
+        <v>116.3968668407311</v>
       </c>
       <c r="BF37">
         <v>0</v>
@@ -12988,10 +12994,10 @@
         <v>0</v>
       </c>
       <c r="CP37">
-        <v>0.9203007518796994</v>
+        <v>1.215037593984962</v>
       </c>
       <c r="CQ37">
-        <v>0.6835983859482555</v>
+        <v>0.8139641037813362</v>
       </c>
       <c r="CR37">
         <v>0</v>
@@ -13021,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="DA37">
-        <v>0.7578329989195863</v>
+        <v>0.9397488005297852</v>
       </c>
     </row>
     <row r="38" spans="1:105">
@@ -13029,16 +13035,16 @@
         <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E38" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F38">
         <v>9.15</v>
@@ -13077,10 +13083,10 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>642</v>
+        <v>710</v>
       </c>
       <c r="S38">
-        <v>319</v>
+        <v>379</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -13191,10 +13197,10 @@
         <v>0</v>
       </c>
       <c r="BD38">
-        <v>110.6896551724138</v>
+        <v>122.4137931034483</v>
       </c>
       <c r="BE38">
-        <v>95.22388059701493</v>
+        <v>113.1343283582089</v>
       </c>
       <c r="BF38">
         <v>0</v>
@@ -13305,10 +13311,10 @@
         <v>0</v>
       </c>
       <c r="CP38">
-        <v>0.9709618874773139</v>
+        <v>1.073805202661827</v>
       </c>
       <c r="CQ38">
-        <v>0.6659012629161883</v>
+        <v>0.7911491493581045</v>
       </c>
       <c r="CR38">
         <v>0</v>
@@ -13338,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="DA38">
-        <v>0.8592730249330767</v>
+        <v>0.9703191066435242</v>
       </c>
     </row>
     <row r="39" spans="1:105">
@@ -13346,16 +13352,16 @@
         <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D39" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F39">
         <v>9.216666666666667</v>
@@ -13394,10 +13400,10 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="S39">
-        <v>485</v>
+        <v>578</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -13508,10 +13514,10 @@
         <v>0</v>
       </c>
       <c r="BD39">
-        <v>100.8571428571429</v>
+        <v>133.1428571428571</v>
       </c>
       <c r="BE39">
-        <v>84.83965014577259</v>
+        <v>101.1078717201166</v>
       </c>
       <c r="BF39">
         <v>0</v>
@@ -13622,10 +13628,10 @@
         <v>0</v>
       </c>
       <c r="CP39">
-        <v>0.8847117794486216</v>
+        <v>1.167919799498747</v>
       </c>
       <c r="CQ39">
-        <v>0.5932842667536545</v>
+        <v>0.7070480539868295</v>
       </c>
       <c r="CR39">
         <v>0</v>
@@ -13655,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="DA39">
-        <v>0.703952942460604</v>
+        <v>0.8820626408900892</v>
       </c>
     </row>
     <row r="40" spans="1:105">
@@ -13663,16 +13669,16 @@
         <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C40" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D40" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F40">
         <v>7.800000000000001</v>
@@ -13705,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -13980,16 +13986,16 @@
         <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C41" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D41" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E41" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -14297,16 +14303,16 @@
         <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D42" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F42">
         <v>3.4</v>
@@ -14614,16 +14620,16 @@
         <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E43" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F43">
         <v>10.56666666666667</v>
@@ -14656,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -14665,7 +14671,7 @@
         <v>139</v>
       </c>
       <c r="S43">
-        <v>557</v>
+        <v>675</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -14770,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>8.490566037735849</v>
+        <v>7.358490566037736</v>
       </c>
       <c r="BC43">
         <v>0</v>
@@ -14779,7 +14785,7 @@
         <v>136.7213114754098</v>
       </c>
       <c r="BE43">
-        <v>72.4945770065076</v>
+        <v>87.85249457700651</v>
       </c>
       <c r="BF43">
         <v>0</v>
@@ -14884,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="CN43">
-        <v>0.1306240928882438</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="CO43">
         <v>0</v>
@@ -14893,7 +14899,7 @@
         <v>1.199309749784297</v>
       </c>
       <c r="CQ43">
-        <v>0.5069550839615916</v>
+        <v>0.6143531089301154</v>
       </c>
       <c r="CR43">
         <v>0</v>
@@ -14923,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="DA43">
-        <v>0.51732345356785</v>
+        <v>0.5925037937324173</v>
       </c>
     </row>
     <row r="44" spans="1:105">
@@ -14931,16 +14937,16 @@
         <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D44" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E44" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F44">
         <v>3.883333333333333</v>
@@ -14979,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>350</v>
+        <v>438</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -15093,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="BD44">
-        <v>90.12875536480686</v>
+        <v>112.7896995708155</v>
       </c>
       <c r="BE44">
         <v>0</v>
@@ -15207,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="CP44">
-        <v>0.790603117235148</v>
+        <v>0.9893833295685567</v>
       </c>
       <c r="CQ44">
         <v>0</v>
@@ -15240,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="DA44">
-        <v>0.790603117235148</v>
+        <v>0.9893833295685567</v>
       </c>
     </row>
     <row r="45" spans="1:105">
@@ -15248,16 +15254,16 @@
         <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D45" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E45" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F45">
         <v>7.466666666666667</v>
@@ -15296,10 +15302,10 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="S45">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -15410,10 +15416,10 @@
         <v>0</v>
       </c>
       <c r="BD45">
-        <v>107.2258064516129</v>
+        <v>121.1612903225806</v>
       </c>
       <c r="BE45">
-        <v>81.70648464163823</v>
+        <v>95.42662116040957</v>
       </c>
       <c r="BF45">
         <v>0</v>
@@ -15524,10 +15530,10 @@
         <v>0</v>
       </c>
       <c r="CP45">
-        <v>0.9405772495755518</v>
+        <v>1.062818336162988</v>
       </c>
       <c r="CQ45">
-        <v>0.5713740184729946</v>
+        <v>0.6673190290937732</v>
       </c>
       <c r="CR45">
         <v>0</v>
@@ -15557,7 +15563,7 @@
         <v>0</v>
       </c>
       <c r="DA45">
-        <v>0.6991117435196382</v>
+        <v>0.8041547268520952</v>
       </c>
     </row>
     <row r="46" spans="1:105">
@@ -15565,16 +15571,16 @@
         <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E46" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F46">
         <v>10.63333333333333</v>
@@ -15613,10 +15619,10 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="S46">
-        <v>831</v>
+        <v>961</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -15727,10 +15733,10 @@
         <v>0</v>
       </c>
       <c r="BD46">
-        <v>135</v>
+        <v>161.25</v>
       </c>
       <c r="BE46">
-        <v>94.79087452471482</v>
+        <v>109.6197718631179</v>
       </c>
       <c r="BF46">
         <v>0</v>
@@ -15841,10 +15847,10 @@
         <v>0</v>
       </c>
       <c r="CP46">
-        <v>1.184210526315789</v>
+        <v>1.414473684210526</v>
       </c>
       <c r="CQ46">
-        <v>0.6628732484245792</v>
+        <v>0.7665718312106145</v>
       </c>
       <c r="CR46">
         <v>0</v>
@@ -15874,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="DA46">
-        <v>0.7543932721296192</v>
+        <v>0.8803100875366178</v>
       </c>
     </row>
     <row r="47" spans="1:105">
@@ -15882,16 +15888,16 @@
         <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D47" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F47">
         <v>6.333333333333334</v>
@@ -15912,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1789</v>
+        <v>1752</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -15921,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>1712</v>
+        <v>1520</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -16026,7 +16032,7 @@
         <v>0</v>
       </c>
       <c r="AX47">
-        <v>832.0930232558139</v>
+        <v>814.8837209302326</v>
       </c>
       <c r="AY47">
         <v>0</v>
@@ -16035,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="BA47">
-        <v>1208.470588235294</v>
+        <v>1072.941176470588</v>
       </c>
       <c r="BB47">
         <v>0</v>
@@ -16140,7 +16146,7 @@
         <v>0</v>
       </c>
       <c r="CJ47">
-        <v>0.8320930232558139</v>
+        <v>0.8148837209302325</v>
       </c>
       <c r="CK47">
         <v>0</v>
@@ -16149,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="CM47">
-        <v>1.510588235294118</v>
+        <v>1.341176470588235</v>
       </c>
       <c r="CN47">
         <v>0</v>
@@ -16191,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="DA47">
-        <v>0.679959547629404</v>
+        <v>0.6362227055241408</v>
       </c>
     </row>
     <row r="48" spans="1:105">
@@ -16199,16 +16205,16 @@
         <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D48" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E48" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F48">
         <v>3.15</v>
@@ -16247,10 +16253,10 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="S48">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -16361,10 +16367,10 @@
         <v>0</v>
       </c>
       <c r="BD48">
-        <v>65.21739130434783</v>
+        <v>90.78260869565217</v>
       </c>
       <c r="BE48">
-        <v>60.81081081081081</v>
+        <v>70.54054054054053</v>
       </c>
       <c r="BF48">
         <v>0</v>
@@ -16475,10 +16481,10 @@
         <v>0</v>
       </c>
       <c r="CP48">
-        <v>0.5720823798627003</v>
+        <v>0.7963386727688787</v>
       </c>
       <c r="CQ48">
-        <v>0.4252504252504252</v>
+        <v>0.4932904932904932</v>
       </c>
       <c r="CR48">
         <v>0</v>
@@ -16508,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="DA48">
-        <v>0.5145926198557778</v>
+        <v>0.6776848882112039</v>
       </c>
     </row>
     <row r="49" spans="1:105">
@@ -16516,16 +16522,16 @@
         <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D49" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F49">
         <v>10.93333333333333</v>
@@ -16564,10 +16570,10 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>782</v>
+        <v>932</v>
       </c>
       <c r="S49">
-        <v>501</v>
+        <v>546</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -16678,10 +16684,10 @@
         <v>0</v>
       </c>
       <c r="BD49">
-        <v>133.2954545454545</v>
+        <v>158.8636363636363</v>
       </c>
       <c r="BE49">
-        <v>98.88157894736842</v>
+        <v>107.7631578947368</v>
       </c>
       <c r="BF49">
         <v>0</v>
@@ -16792,10 +16798,10 @@
         <v>0</v>
       </c>
       <c r="CP49">
-        <v>1.169258373205742</v>
+        <v>1.393540669856459</v>
       </c>
       <c r="CQ49">
-        <v>0.6914795730585205</v>
+        <v>0.7535885167464116</v>
       </c>
       <c r="CR49">
         <v>0</v>
@@ -16825,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="DA49">
-        <v>0.9478486853326391</v>
+        <v>1.096977476951803</v>
       </c>
     </row>
     <row r="50" spans="1:105">
@@ -16833,16 +16839,16 @@
         <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E50" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F50">
         <v>7.65</v>
@@ -16881,13 +16887,13 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="S50">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="T50">
-        <v>2010</v>
+        <v>2367</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -16995,13 +17001,13 @@
         <v>0</v>
       </c>
       <c r="BD50">
-        <v>58.2608695652174</v>
+        <v>86.08695652173914</v>
       </c>
       <c r="BE50">
-        <v>57.72727272727272</v>
+        <v>66.36363636363636</v>
       </c>
       <c r="BF50">
-        <v>467.4418604651163</v>
+        <v>550.4651162790698</v>
       </c>
       <c r="BG50">
         <v>0</v>
@@ -17109,13 +17115,13 @@
         <v>0</v>
       </c>
       <c r="CP50">
-        <v>0.5110602593440122</v>
+        <v>0.7551487414187644</v>
       </c>
       <c r="CQ50">
-        <v>0.40368722186904</v>
+        <v>0.4640813731722823</v>
       </c>
       <c r="CR50">
-        <v>0.6492248062015504</v>
+        <v>0.7645348837209303</v>
       </c>
       <c r="CS50">
         <v>0</v>
@@ -17142,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="DA50">
-        <v>0.5578428566044665</v>
+        <v>0.6767189638706668</v>
       </c>
     </row>
     <row r="51" spans="1:105">
@@ -17150,16 +17156,16 @@
         <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D51" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F51">
         <v>6.1</v>
@@ -17180,7 +17186,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>2122</v>
+        <v>1906</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -17189,7 +17195,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>2637</v>
+        <v>1934</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -17294,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="AX51">
-        <v>1463.448275862069</v>
+        <v>1314.48275862069</v>
       </c>
       <c r="AY51">
         <v>0</v>
@@ -17303,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="BA51">
-        <v>828.3769633507853</v>
+        <v>607.5392670157067</v>
       </c>
       <c r="BB51">
         <v>0</v>
@@ -17408,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="CJ51">
-        <v>1.463448275862069</v>
+        <v>1.31448275862069</v>
       </c>
       <c r="CK51">
         <v>0</v>
@@ -17417,7 +17423,7 @@
         <v>0</v>
       </c>
       <c r="CM51">
-        <v>1.035471204188482</v>
+        <v>0.7594240837696334</v>
       </c>
       <c r="CN51">
         <v>0</v>
@@ -17459,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="DA51">
-        <v>0.9076569344713906</v>
+        <v>0.7281897213566364</v>
       </c>
     </row>
     <row r="52" spans="1:105">
@@ -17467,16 +17473,16 @@
         <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D52" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E52" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F52">
         <v>6.9</v>
@@ -17494,10 +17500,10 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L52">
-        <v>2080</v>
+        <v>1480</v>
       </c>
       <c r="M52">
         <v>3</v>
@@ -17506,13 +17512,13 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>648</v>
+        <v>585</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -17608,10 +17614,10 @@
         <v>0</v>
       </c>
       <c r="AW52">
-        <v>106.3291139240506</v>
+        <v>96.45569620253164</v>
       </c>
       <c r="AX52">
-        <v>2311.111111111111</v>
+        <v>1644.444444444444</v>
       </c>
       <c r="AY52">
         <v>12</v>
@@ -17620,13 +17626,13 @@
         <v>0</v>
       </c>
       <c r="BA52">
-        <v>747.6923076923076</v>
+        <v>675</v>
       </c>
       <c r="BB52">
         <v>0</v>
       </c>
       <c r="BC52">
-        <v>16</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="BD52">
         <v>0</v>
@@ -17722,10 +17728,10 @@
         <v>0</v>
       </c>
       <c r="CI52">
-        <v>0.850632911392405</v>
+        <v>0.7716455696202531</v>
       </c>
       <c r="CJ52">
-        <v>2.311111111111111</v>
+        <v>1.644444444444444</v>
       </c>
       <c r="CK52">
         <v>0.00258732212160414</v>
@@ -17734,13 +17740,13 @@
         <v>0</v>
       </c>
       <c r="CM52">
-        <v>0.9346153846153845</v>
+        <v>0.84375</v>
       </c>
       <c r="CN52">
         <v>0</v>
       </c>
       <c r="CO52">
-        <v>0.2461538461538462</v>
+        <v>0.2256410256410256</v>
       </c>
       <c r="CP52">
         <v>0</v>
@@ -17776,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="DA52">
-        <v>0.6477343330929533</v>
+        <v>0.5320626497038786</v>
       </c>
     </row>
     <row r="53" spans="1:105">
@@ -17784,16 +17790,16 @@
         <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C53" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F53">
         <v>6.366666666666666</v>
@@ -17823,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>535</v>
+        <v>367</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -17937,7 +17943,7 @@
         <v>0</v>
       </c>
       <c r="BA53">
-        <v>867.5675675675675</v>
+        <v>595.1351351351351</v>
       </c>
       <c r="BB53">
         <v>0</v>
@@ -18051,7 +18057,7 @@
         <v>0</v>
       </c>
       <c r="CM53">
-        <v>1.084459459459459</v>
+        <v>0.7439189189189189</v>
       </c>
       <c r="CN53">
         <v>0</v>
@@ -18093,7 +18099,7 @@
         <v>0</v>
       </c>
       <c r="DA53">
-        <v>0.1955139327592921</v>
+        <v>0.1625296395655748</v>
       </c>
     </row>
     <row r="54" spans="1:105">
@@ -18101,16 +18107,16 @@
         <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D54" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E54" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F54">
         <v>2.966666666666667</v>
@@ -18143,7 +18149,7 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -18257,7 +18263,7 @@
         <v>0</v>
       </c>
       <c r="BB54">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="BC54">
         <v>0</v>
@@ -18371,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="CN54">
-        <v>0.1346153846153846</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="CO54">
         <v>0</v>
@@ -18410,7 +18416,7 @@
         <v>0</v>
       </c>
       <c r="DA54">
-        <v>0.5247398158531968</v>
+        <v>0.5195539904426523</v>
       </c>
     </row>
     <row r="55" spans="1:105">
@@ -18418,16 +18424,16 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C55" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D55" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E55" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F55">
         <v>3.666666666666667</v>
@@ -18460,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -18574,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="BB55">
-        <v>6.26865671641791</v>
+        <v>5.373134328358208</v>
       </c>
       <c r="BC55">
         <v>0</v>
@@ -18688,7 +18694,7 @@
         <v>0</v>
       </c>
       <c r="CN55">
-        <v>0.09644087256027553</v>
+        <v>0.08266360505166474</v>
       </c>
       <c r="CO55">
         <v>0</v>
@@ -18727,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="DA55">
-        <v>0.5079581575449345</v>
+        <v>0.5037623533491302</v>
       </c>
     </row>
     <row r="56" spans="1:105">
@@ -18735,16 +18741,16 @@
         <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F56">
         <v>8.633333333333333</v>
@@ -18786,10 +18792,10 @@
         <v>5</v>
       </c>
       <c r="S56">
-        <v>508</v>
+        <v>636</v>
       </c>
       <c r="T56">
-        <v>599</v>
+        <v>708</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -18900,10 +18906,10 @@
         <v>23.07692307692308</v>
       </c>
       <c r="BE56">
-        <v>73.26923076923077</v>
+        <v>91.73076923076923</v>
       </c>
       <c r="BF56">
-        <v>403.8202247191011</v>
+        <v>477.3033707865168</v>
       </c>
       <c r="BG56">
         <v>0</v>
@@ -19014,10 +19020,10 @@
         <v>0.2024291497975708</v>
       </c>
       <c r="CQ56">
-        <v>0.5123722431414739</v>
+        <v>0.6414739107046799</v>
       </c>
       <c r="CR56">
-        <v>0.5608614232209738</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="CS56">
         <v>0</v>
@@ -19044,7 +19050,7 @@
         <v>0</v>
       </c>
       <c r="DA56">
-        <v>0.5129249010827959</v>
+        <v>0.634140397298292</v>
       </c>
     </row>
     <row r="57" spans="1:105">
@@ -19052,16 +19058,16 @@
         <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C57" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D57" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F57">
         <v>6.75</v>
@@ -19082,7 +19088,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -19091,7 +19097,7 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>4651</v>
+        <v>3940</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -19196,7 +19202,7 @@
         <v>0</v>
       </c>
       <c r="AX57">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AY57">
         <v>0</v>
@@ -19205,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="BA57">
-        <v>1049.097744360902</v>
+        <v>888.7218045112782</v>
       </c>
       <c r="BB57">
         <v>0</v>
@@ -19310,7 +19316,7 @@
         <v>0</v>
       </c>
       <c r="CJ57">
-        <v>0.144</v>
+        <v>0.104</v>
       </c>
       <c r="CK57">
         <v>0</v>
@@ -19319,7 +19325,7 @@
         <v>0</v>
       </c>
       <c r="CM57">
-        <v>1.311372180451128</v>
+        <v>1.110902255639098</v>
       </c>
       <c r="CN57">
         <v>0</v>
@@ -19361,7 +19367,7 @@
         <v>0</v>
       </c>
       <c r="DA57">
-        <v>0.9677507397204366</v>
+        <v>0.8286766656463627</v>
       </c>
     </row>
     <row r="58" spans="1:105">
@@ -19369,16 +19375,16 @@
         <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C58" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D58" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F58">
         <v>10.96666666666667</v>
@@ -19420,10 +19426,10 @@
         <v>87</v>
       </c>
       <c r="S58">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="T58">
-        <v>1996</v>
+        <v>2341</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -19534,10 +19540,10 @@
         <v>174</v>
       </c>
       <c r="BE58">
-        <v>101.6393442622951</v>
+        <v>120</v>
       </c>
       <c r="BF58">
-        <v>269.123595505618</v>
+        <v>315.6404494382022</v>
       </c>
       <c r="BG58">
         <v>0</v>
@@ -19648,10 +19654,10 @@
         <v>1.526315789473684</v>
       </c>
       <c r="CQ58">
-        <v>0.7107646451908747</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="CR58">
-        <v>0.3737827715355805</v>
+        <v>0.4383895131086142</v>
       </c>
       <c r="CS58">
         <v>0</v>
@@ -19678,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="DA58">
-        <v>0.5200497524125743</v>
+        <v>0.5994517334103</v>
       </c>
     </row>
     <row r="59" spans="1:105">
@@ -19686,16 +19692,16 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D59" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F59">
         <v>9.4</v>
@@ -19734,7 +19740,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -19848,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="BD59">
-        <v>68.29787234042553</v>
+        <v>73.51063829787233</v>
       </c>
       <c r="BE59">
         <v>0</v>
@@ -19962,7 +19968,7 @@
         <v>0</v>
       </c>
       <c r="CP59">
-        <v>0.5991041433370661</v>
+        <v>0.6448301605076521</v>
       </c>
       <c r="CQ59">
         <v>0</v>
@@ -19995,7 +20001,7 @@
         <v>0</v>
       </c>
       <c r="DA59">
-        <v>0.5991041433370661</v>
+        <v>0.6448301605076521</v>
       </c>
     </row>
     <row r="60" spans="1:105">
@@ -20003,16 +20009,16 @@
         <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C60" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D60" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E60" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -20320,16 +20326,16 @@
         <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C61" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D61" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E61" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F61">
         <v>7.366666666666665</v>
@@ -20368,10 +20374,10 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>376</v>
+        <v>555</v>
       </c>
       <c r="S61">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -20482,10 +20488,10 @@
         <v>0</v>
       </c>
       <c r="BD61">
-        <v>85.13207547169813</v>
+        <v>125.6603773584906</v>
       </c>
       <c r="BE61">
-        <v>81.01694915254238</v>
+        <v>94.57627118644069</v>
       </c>
       <c r="BF61">
         <v>0</v>
@@ -20596,10 +20602,10 @@
         <v>0</v>
       </c>
       <c r="CP61">
-        <v>0.7467725918570012</v>
+        <v>1.102284011916584</v>
       </c>
       <c r="CQ61">
-        <v>0.5665520919758208</v>
+        <v>0.6613725257793055</v>
       </c>
       <c r="CR61">
         <v>0</v>
@@ -20629,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="DA61">
-        <v>0.6746028441670262</v>
+        <v>0.925719910001882</v>
       </c>
     </row>
     <row r="62" spans="1:105">
@@ -20637,16 +20643,16 @@
         <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D62" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E62" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F62">
         <v>2.15</v>
@@ -20685,7 +20691,7 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -20799,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="BD62">
-        <v>46.04651162790698</v>
+        <v>113.0232558139535</v>
       </c>
       <c r="BE62">
         <v>0</v>
@@ -20913,7 +20919,7 @@
         <v>0</v>
       </c>
       <c r="CP62">
-        <v>0.4039167686658507</v>
+        <v>0.9914320685434518</v>
       </c>
       <c r="CQ62">
         <v>0</v>
@@ -20946,7 +20952,7 @@
         <v>0</v>
       </c>
       <c r="DA62">
-        <v>0.4039167686658507</v>
+        <v>0.9914320685434518</v>
       </c>
     </row>
     <row r="63" spans="1:105">
@@ -20954,16 +20960,16 @@
         <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C63" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D63" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E63" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F63">
         <v>6.149999999999999</v>
@@ -20984,7 +20990,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>3842</v>
+        <v>3335</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -21098,7 +21104,7 @@
         <v>0</v>
       </c>
       <c r="AX63">
-        <v>1422.962962962963</v>
+        <v>1235.185185185185</v>
       </c>
       <c r="AY63">
         <v>0</v>
@@ -21212,7 +21218,7 @@
         <v>0</v>
       </c>
       <c r="CJ63">
-        <v>1.422962962962963</v>
+        <v>1.235185185185185</v>
       </c>
       <c r="CK63">
         <v>0</v>
@@ -21263,7 +21269,7 @@
         <v>0</v>
       </c>
       <c r="DA63">
-        <v>0.6247154471544716</v>
+        <v>0.5422764227642276</v>
       </c>
     </row>
     <row r="64" spans="1:105">
@@ -21271,16 +21277,16 @@
         <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D64" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -21588,16 +21594,16 @@
         <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C65" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D65" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -21905,16 +21911,16 @@
         <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D66" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F66">
         <v>2.783333333333333</v>
@@ -22222,16 +22228,16 @@
         <v>170</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C67" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D67" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E67" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -22539,16 +22545,16 @@
         <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D68" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E68" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F68">
         <v>6.516666666666667</v>
@@ -22578,7 +22584,7 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>4724</v>
+        <v>4250</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -22692,7 +22698,7 @@
         <v>0</v>
       </c>
       <c r="BA68">
-        <v>902.6751592356686</v>
+        <v>812.1019108280253</v>
       </c>
       <c r="BB68">
         <v>0</v>
@@ -22806,7 +22812,7 @@
         <v>0</v>
       </c>
       <c r="CM68">
-        <v>1.128343949044586</v>
+        <v>1.015127388535032</v>
       </c>
       <c r="CN68">
         <v>0</v>
@@ -22848,7 +22854,7 @@
         <v>0</v>
       </c>
       <c r="DA68">
-        <v>0.9804488785951141</v>
+        <v>0.8895281624825822</v>
       </c>
     </row>
     <row r="69" spans="1:105">
@@ -22856,16 +22862,16 @@
         <v>172</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D69" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E69" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -23173,16 +23179,16 @@
         <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C70" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D70" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E70" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -23490,16 +23496,16 @@
         <v>174</v>
       </c>
       <c r="B71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C71" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E71" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F71">
         <v>2.233333333333333</v>
@@ -23807,16 +23813,16 @@
         <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C72" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D72" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -24124,16 +24130,16 @@
         <v>176</v>
       </c>
       <c r="B73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C73" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D73" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E73" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -24441,16 +24447,16 @@
         <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C74" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D74" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E74" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F74">
         <v>3.533333333333333</v>
@@ -24483,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="P74">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -24597,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="BB74">
-        <v>45</v>
+        <v>42.5</v>
       </c>
       <c r="BC74">
         <v>0</v>
@@ -24711,7 +24717,7 @@
         <v>0</v>
       </c>
       <c r="CN74">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="CO74">
         <v>0</v>
@@ -24750,7 +24756,7 @@
         <v>0</v>
       </c>
       <c r="DA74">
-        <v>0.9079394019359714</v>
+        <v>0.9035852655063633</v>
       </c>
     </row>
     <row r="75" spans="1:105">
@@ -24758,16 +24764,16 @@
         <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E75" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F75">
         <v>5.416666666666667</v>
@@ -24788,7 +24794,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>2791</v>
+        <v>2530</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -24803,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -24902,7 +24908,7 @@
         <v>0</v>
       </c>
       <c r="AX75">
-        <v>1053.207547169811</v>
+        <v>954.7169811320755</v>
       </c>
       <c r="AY75">
         <v>0</v>
@@ -24917,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="BC75">
-        <v>38.46153846153846</v>
+        <v>34.87179487179487</v>
       </c>
       <c r="BD75">
         <v>0</v>
@@ -25016,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="CJ75">
-        <v>1.053207547169811</v>
+        <v>0.9547169811320755</v>
       </c>
       <c r="CK75">
         <v>0</v>
@@ -25031,7 +25037,7 @@
         <v>0</v>
       </c>
       <c r="CO75">
-        <v>0.591715976331361</v>
+        <v>0.5364891518737672</v>
       </c>
       <c r="CP75">
         <v>0</v>
@@ -25067,7 +25073,7 @@
         <v>0</v>
       </c>
       <c r="DA75">
-        <v>0.7282792899408282</v>
+        <v>0.6602130177514792</v>
       </c>
     </row>
     <row r="76" spans="1:105">
@@ -25075,16 +25081,16 @@
         <v>179</v>
       </c>
       <c r="B76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C76" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D76" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F76">
         <v>4.183333333333333</v>
@@ -25102,7 +25108,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -25216,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="AW76">
-        <v>60.00000000000001</v>
+        <v>51.58878504672897</v>
       </c>
       <c r="AX76">
         <v>0</v>
@@ -25330,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="CI76">
-        <v>0.48</v>
+        <v>0.4127102803738318</v>
       </c>
       <c r="CJ76">
         <v>0</v>
@@ -25384,7 +25390,7 @@
         <v>0</v>
       </c>
       <c r="DA76">
-        <v>0.4306450232129335</v>
+        <v>0.3732745052846466</v>
       </c>
     </row>
     <row r="77" spans="1:105">
@@ -25392,16 +25398,16 @@
         <v>180</v>
       </c>
       <c r="B77" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C77" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D77" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -25709,16 +25715,16 @@
         <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C78" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D78" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F78">
         <v>6.033333333333334</v>
@@ -25739,16 +25745,16 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>2156</v>
+        <v>1971</v>
       </c>
       <c r="M78">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>1548</v>
+        <v>1123</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -25853,16 +25859,16 @@
         <v>0</v>
       </c>
       <c r="AX78">
-        <v>829.2307692307692</v>
+        <v>758.0769230769231</v>
       </c>
       <c r="AY78">
-        <v>437.8378378378378</v>
+        <v>324.3243243243243</v>
       </c>
       <c r="AZ78">
         <v>0</v>
       </c>
       <c r="BA78">
-        <v>767.603305785124</v>
+        <v>556.8595041322315</v>
       </c>
       <c r="BB78">
         <v>0</v>
@@ -25967,16 +25973,16 @@
         <v>0</v>
       </c>
       <c r="CJ78">
-        <v>0.8292307692307692</v>
+        <v>0.7580769230769231</v>
       </c>
       <c r="CK78">
-        <v>0.09440229362609698</v>
+        <v>0.06992762490821999</v>
       </c>
       <c r="CL78">
         <v>0</v>
       </c>
       <c r="CM78">
-        <v>0.959504132231405</v>
+        <v>0.6960743801652893</v>
       </c>
       <c r="CN78">
         <v>0</v>
@@ -26018,7 +26024,7 @@
         <v>0</v>
       </c>
       <c r="DA78">
-        <v>0.7224167633570163</v>
+        <v>0.6011997392062942</v>
       </c>
     </row>
     <row r="79" spans="1:105">
@@ -26026,16 +26032,16 @@
         <v>182</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C79" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D79" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E79" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -26343,16 +26349,16 @@
         <v>183</v>
       </c>
       <c r="B80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F80">
         <v>0.9666666666666667</v>
@@ -26391,7 +26397,7 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -26505,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="BD80">
-        <v>108.6206896551724</v>
+        <v>183.1034482758621</v>
       </c>
       <c r="BE80">
         <v>0</v>
@@ -26619,7 +26625,7 @@
         <v>0</v>
       </c>
       <c r="CP80">
-        <v>0.9528130671506352</v>
+        <v>1.606170598911071</v>
       </c>
       <c r="CQ80">
         <v>0</v>
@@ -26652,7 +26658,7 @@
         <v>0</v>
       </c>
       <c r="DA80">
-        <v>0.9528130671506352</v>
+        <v>1.606170598911071</v>
       </c>
     </row>
     <row r="81" spans="1:105">
@@ -26660,16 +26666,16 @@
         <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C81" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F81">
         <v>3.216666666666667</v>
@@ -26708,10 +26714,10 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="S81">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -26822,10 +26828,10 @@
         <v>0</v>
       </c>
       <c r="BD81">
-        <v>141.6</v>
+        <v>154.8</v>
       </c>
       <c r="BE81">
-        <v>136.1290322580645</v>
+        <v>154.8387096774194</v>
       </c>
       <c r="BF81">
         <v>0</v>
@@ -26936,10 +26942,10 @@
         <v>0</v>
       </c>
       <c r="CP81">
-        <v>1.242105263157895</v>
+        <v>1.357894736842105</v>
       </c>
       <c r="CQ81">
-        <v>0.9519512745319196</v>
+        <v>1.082788179562373</v>
       </c>
       <c r="CR81">
         <v>0</v>
@@ -26969,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="DA81">
-        <v>1.102290128742269</v>
+        <v>1.225330437220265</v>
       </c>
     </row>
     <row r="82" spans="1:105">
@@ -26977,16 +26983,16 @@
         <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C82" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -27294,16 +27300,16 @@
         <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C83" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -27611,16 +27617,16 @@
         <v>187</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C84" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D84" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E84" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F84">
         <v>4.85</v>
@@ -27659,10 +27665,10 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>516</v>
+        <v>649</v>
       </c>
       <c r="S84">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -27773,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="BD84">
-        <v>128.4647302904564</v>
+        <v>161.5767634854772</v>
       </c>
       <c r="BE84">
-        <v>103.2</v>
+        <v>105.6</v>
       </c>
       <c r="BF84">
         <v>0</v>
@@ -27887,10 +27893,10 @@
         <v>0</v>
       </c>
       <c r="CP84">
-        <v>1.126883599039092</v>
+        <v>1.417340030574361</v>
       </c>
       <c r="CQ84">
-        <v>0.7216783216783216</v>
+        <v>0.7384615384615384</v>
       </c>
       <c r="CR84">
         <v>0</v>
@@ -27920,7 +27926,7 @@
         <v>0</v>
       </c>
       <c r="DA84">
-        <v>1.057260699148925</v>
+        <v>1.30069424155154</v>
       </c>
     </row>
     <row r="85" spans="1:105">
@@ -27928,16 +27934,16 @@
         <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C85" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D85" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E85" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F85">
         <v>4.933333333333333</v>
@@ -28245,16 +28251,16 @@
         <v>189</v>
       </c>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C86" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D86" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E86" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F86">
         <v>1.65</v>
@@ -28296,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -28410,7 +28416,7 @@
         <v>0</v>
       </c>
       <c r="BE86">
-        <v>51.51515151515152</v>
+        <v>58.18181818181819</v>
       </c>
       <c r="BF86">
         <v>0</v>
@@ -28524,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="CQ86">
-        <v>0.3602458147912693</v>
+        <v>0.406865861411316</v>
       </c>
       <c r="CR86">
         <v>0</v>
@@ -28554,7 +28560,7 @@
         <v>0</v>
       </c>
       <c r="DA86">
-        <v>0.3602458147912693</v>
+        <v>0.406865861411316</v>
       </c>
     </row>
     <row r="87" spans="1:105">
@@ -28562,16 +28568,16 @@
         <v>190</v>
       </c>
       <c r="B87" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D87" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E87" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -28879,16 +28885,16 @@
         <v>191</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C88" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E88" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F88">
         <v>5.466666666666667</v>
@@ -28921,7 +28927,7 @@
         <v>0</v>
       </c>
       <c r="P88">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -28930,7 +28936,7 @@
         <v>145</v>
       </c>
       <c r="S88">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -29035,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="BB88">
-        <v>125.8823529411765</v>
+        <v>104.7058823529412</v>
       </c>
       <c r="BC88">
         <v>0</v>
@@ -29044,7 +29050,7 @@
         <v>131.8181818181818</v>
       </c>
       <c r="BE88">
-        <v>38.62068965517241</v>
+        <v>49.6551724137931</v>
       </c>
       <c r="BF88">
         <v>0</v>
@@ -29149,7 +29155,7 @@
         <v>0</v>
       </c>
       <c r="CN88">
-        <v>1.936651583710407</v>
+        <v>1.610859728506787</v>
       </c>
       <c r="CO88">
         <v>0</v>
@@ -29158,7 +29164,7 @@
         <v>1.156299840510367</v>
       </c>
       <c r="CQ88">
-        <v>0.2700747528333735</v>
+        <v>0.3472389679286231</v>
       </c>
       <c r="CR88">
         <v>0</v>
@@ -29188,7 +29194,7 @@
         <v>0</v>
       </c>
       <c r="DA88">
-        <v>0.8647037989435002</v>
+        <v>0.8345144760712505</v>
       </c>
     </row>
     <row r="89" spans="1:105">
@@ -29196,16 +29202,16 @@
         <v>192</v>
       </c>
       <c r="B89" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F89">
         <v>8.383333333333335</v>
@@ -29244,10 +29250,10 @@
         <v>0</v>
       </c>
       <c r="R89">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="S89">
-        <v>498</v>
+        <v>605</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -29358,10 +29364,10 @@
         <v>0</v>
       </c>
       <c r="BD89">
-        <v>109.1338582677165</v>
+        <v>152.5984251968504</v>
       </c>
       <c r="BE89">
-        <v>79.46808510638299</v>
+        <v>96.54255319148936</v>
       </c>
       <c r="BF89">
         <v>0</v>
@@ -29472,10 +29478,10 @@
         <v>0</v>
       </c>
       <c r="CP89">
-        <v>0.9573145462080398</v>
+        <v>1.338582677165354</v>
       </c>
       <c r="CQ89">
-        <v>0.5557208748698111</v>
+        <v>0.6751227495908347</v>
       </c>
       <c r="CR89">
         <v>0</v>
@@ -29505,7 +29511,7 @@
         <v>0</v>
       </c>
       <c r="DA89">
-        <v>0.6571172889055069</v>
+        <v>0.8426364887597491</v>
       </c>
     </row>
     <row r="90" spans="1:105">
@@ -29513,16 +29519,16 @@
         <v>193</v>
       </c>
       <c r="B90" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D90" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E90" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -29830,16 +29836,16 @@
         <v>194</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C91" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E91" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F91">
         <v>3.7</v>
@@ -29881,7 +29887,7 @@
         <v>91</v>
       </c>
       <c r="S91">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -29995,7 +30001,7 @@
         <v>65</v>
       </c>
       <c r="BE91">
-        <v>55.65217391304348</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="BF91">
         <v>0</v>
@@ -30109,7 +30115,7 @@
         <v>0.5701754385964912</v>
       </c>
       <c r="CQ91">
-        <v>0.3891760413499544</v>
+        <v>0.4408634843417453</v>
       </c>
       <c r="CR91">
         <v>0</v>
@@ -30139,7 +30145,7 @@
         <v>0</v>
       </c>
       <c r="DA91">
-        <v>0.4576622997675629</v>
+        <v>0.489792331897595</v>
       </c>
     </row>
     <row r="92" spans="1:105">
@@ -30147,16 +30153,16 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C92" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D92" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E92" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F92">
         <v>6.133333333333334</v>
@@ -30464,16 +30470,16 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C93" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D93" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E93" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -30781,16 +30787,16 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C94" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E94" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -31098,16 +31104,16 @@
         <v>198</v>
       </c>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D95" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E95" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F95">
         <v>6.433333333333333</v>
@@ -31140,7 +31146,7 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -31254,7 +31260,7 @@
         <v>0</v>
       </c>
       <c r="BB95">
-        <v>205.7142857142857</v>
+        <v>182.1428571428571</v>
       </c>
       <c r="BC95">
         <v>0</v>
@@ -31368,7 +31374,7 @@
         <v>0</v>
       </c>
       <c r="CN95">
-        <v>3.164835164835165</v>
+        <v>2.802197802197802</v>
       </c>
       <c r="CO95">
         <v>0</v>
@@ -31407,7 +31413,324 @@
         <v>0</v>
       </c>
       <c r="DA95">
-        <v>0.9248259983069217</v>
+        <v>0.8722153964735219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:105">
+      <c r="A96" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" t="s">
+        <v>297</v>
+      </c>
+      <c r="D96" t="s">
+        <v>300</v>
+      </c>
+      <c r="E96" t="s">
+        <v>303</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>24.55</v>
+      </c>
+      <c r="H96">
+        <v>24.55</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>0</v>
+      </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
+      <c r="AS96">
+        <v>0</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
+      <c r="AU96">
+        <v>0</v>
+      </c>
+      <c r="AV96">
+        <v>0</v>
+      </c>
+      <c r="AW96">
+        <v>0</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>0</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+      <c r="BI96">
+        <v>0</v>
+      </c>
+      <c r="BJ96">
+        <v>0</v>
+      </c>
+      <c r="BK96">
+        <v>0</v>
+      </c>
+      <c r="BL96">
+        <v>0</v>
+      </c>
+      <c r="BM96">
+        <v>0</v>
+      </c>
+      <c r="BN96">
+        <v>0</v>
+      </c>
+      <c r="BO96">
+        <v>0</v>
+      </c>
+      <c r="BP96">
+        <v>0</v>
+      </c>
+      <c r="BQ96">
+        <v>0</v>
+      </c>
+      <c r="BR96">
+        <v>0</v>
+      </c>
+      <c r="BS96">
+        <v>0</v>
+      </c>
+      <c r="BT96">
+        <v>0</v>
+      </c>
+      <c r="BU96">
+        <v>0</v>
+      </c>
+      <c r="BV96">
+        <v>0</v>
+      </c>
+      <c r="BW96">
+        <v>0</v>
+      </c>
+      <c r="BX96">
+        <v>0</v>
+      </c>
+      <c r="BY96">
+        <v>0</v>
+      </c>
+      <c r="BZ96">
+        <v>0</v>
+      </c>
+      <c r="CA96">
+        <v>0</v>
+      </c>
+      <c r="CB96">
+        <v>0</v>
+      </c>
+      <c r="CC96">
+        <v>0</v>
+      </c>
+      <c r="CD96">
+        <v>0</v>
+      </c>
+      <c r="CE96">
+        <v>0</v>
+      </c>
+      <c r="CF96">
+        <v>0</v>
+      </c>
+      <c r="CG96">
+        <v>0</v>
+      </c>
+      <c r="CH96">
+        <v>0</v>
+      </c>
+      <c r="CI96">
+        <v>0</v>
+      </c>
+      <c r="CJ96">
+        <v>0</v>
+      </c>
+      <c r="CK96">
+        <v>0</v>
+      </c>
+      <c r="CL96">
+        <v>0</v>
+      </c>
+      <c r="CM96">
+        <v>0</v>
+      </c>
+      <c r="CN96">
+        <v>0</v>
+      </c>
+      <c r="CO96">
+        <v>0</v>
+      </c>
+      <c r="CP96">
+        <v>0</v>
+      </c>
+      <c r="CQ96">
+        <v>0</v>
+      </c>
+      <c r="CR96">
+        <v>0</v>
+      </c>
+      <c r="CS96">
+        <v>0</v>
+      </c>
+      <c r="CT96">
+        <v>0</v>
+      </c>
+      <c r="CU96">
+        <v>0</v>
+      </c>
+      <c r="CV96">
+        <v>0</v>
+      </c>
+      <c r="CW96">
+        <v>0</v>
+      </c>
+      <c r="CX96">
+        <v>0</v>
+      </c>
+      <c r="CY96">
+        <v>0</v>
+      </c>
+      <c r="CZ96">
+        <v>0</v>
+      </c>
+      <c r="DA96">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
